--- a/data/trans_orig/IP07A25_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A25_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B8A922-1FD9-43BA-A256-D8FE4F80654E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B4C1739-2E9E-4CFC-83C1-BC852478B481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F517D0BB-CC93-4811-B261-4E6D8C91FA36}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{34EE8914-7CEB-4C4B-A3AE-473A4A8A1C15}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,27 +68,195 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
     <t>Moderadamente</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>Mucho</t>
   </si>
   <si>
     <t>Muchísimo</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
     <t>14,39%</t>
   </si>
   <si>
@@ -170,172 +338,49 @@
     <t>57,1%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>13,29%</t>
@@ -417,51 +462,6 @@
   </si>
   <si>
     <t>58,24%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
   </si>
 </sst>
 </file>
@@ -853,7 +853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A728A5-280B-4227-A8AA-CA25774B2E82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CFD361-2F0C-4268-8748-7FE3170DB834}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1243,10 +1243,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>50380</v>
+        <v>422</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1258,34 +1258,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>27775</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>422</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7">
-        <v>75</v>
-      </c>
-      <c r="N10" s="7">
-        <v>78156</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,49 +1294,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>110415</v>
+        <v>674</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>674</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="7">
-        <v>134</v>
-      </c>
-      <c r="I11" s="7">
-        <v>93262</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>273</v>
-      </c>
-      <c r="N11" s="7">
-        <v>203677</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,49 +1345,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>204</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>173945</v>
+        <v>5133</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2809</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="7">
+        <v>10</v>
+      </c>
+      <c r="N12" s="7">
+        <v>7941</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="7">
-        <v>225</v>
-      </c>
-      <c r="I12" s="7">
-        <v>171972</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="7">
-        <v>429</v>
-      </c>
-      <c r="N12" s="7">
-        <v>345917</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,49 +1396,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>6866</v>
+        <v>24517</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="7">
+        <v>22</v>
+      </c>
+      <c r="I13" s="7">
+        <v>16483</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="7">
+        <v>52</v>
+      </c>
+      <c r="N13" s="7">
+        <v>41000</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>6866</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,49 +1447,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>8427</v>
+        <v>36851</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="7">
+        <v>56</v>
+      </c>
+      <c r="I14" s="7">
+        <v>43162</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="7">
+        <v>98</v>
+      </c>
+      <c r="N14" s="7">
+        <v>80013</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5717</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="7">
-        <v>19</v>
-      </c>
-      <c r="N14" s="7">
-        <v>14144</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,102 +1498,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7">
-        <v>350034</v>
+        <v>67597</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>298726</v>
+        <v>62453</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
-        <v>801</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>648761</v>
+        <v>130050</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>5133</v>
+        <v>6866</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>2809</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>7941</v>
+        <v>6866</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,49 +1602,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>24517</v>
+        <v>8427</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>16483</v>
+        <v>5717</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="N17" s="7">
-        <v>41000</v>
+        <v>14144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,49 +1653,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D18" s="7">
-        <v>36851</v>
+        <v>50380</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H18" s="7">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I18" s="7">
-        <v>43162</v>
+        <v>27775</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="M18" s="7">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="N18" s="7">
-        <v>80013</v>
+        <v>78156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,49 +1704,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="D19" s="7">
-        <v>422</v>
+        <v>110415</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>93262</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="N19" s="7">
-        <v>422</v>
+        <v>203677</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,46 +1755,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="D20" s="7">
-        <v>674</v>
+        <v>173945</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="7">
+        <v>225</v>
+      </c>
+      <c r="I20" s="7">
+        <v>171972</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>429</v>
+      </c>
+      <c r="N20" s="7">
+        <v>345917</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>674</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>99</v>
@@ -1806,49 +1806,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="D21" s="7">
-        <v>67597</v>
+        <v>350034</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="I21" s="7">
-        <v>62453</v>
+        <v>298726</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>801</v>
       </c>
       <c r="N21" s="7">
-        <v>130050</v>
+        <v>648761</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,10 +1859,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>55513</v>
+        <v>7288</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>100</v>
@@ -1874,34 +1874,34 @@
         <v>102</v>
       </c>
       <c r="H22" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>30584</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>6</v>
+      </c>
+      <c r="N22" s="7">
+        <v>7288</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M22" s="7">
-        <v>85</v>
-      </c>
-      <c r="N22" s="7">
-        <v>86097</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,49 +1910,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="D23" s="7">
-        <v>134933</v>
+        <v>9102</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="7">
+        <v>8</v>
+      </c>
+      <c r="I23" s="7">
+        <v>5717</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="7">
-        <v>156</v>
-      </c>
-      <c r="I23" s="7">
-        <v>109744</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>20</v>
+      </c>
+      <c r="N23" s="7">
+        <v>14819</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="M23" s="7">
-        <v>325</v>
-      </c>
-      <c r="N23" s="7">
-        <v>244677</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,49 +1961,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>246</v>
+        <v>54</v>
       </c>
       <c r="D24" s="7">
-        <v>210795</v>
+        <v>55513</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="7">
+        <v>31</v>
+      </c>
+      <c r="I24" s="7">
+        <v>30584</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="7">
-        <v>281</v>
-      </c>
-      <c r="I24" s="7">
-        <v>215135</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>85</v>
+      </c>
+      <c r="N24" s="7">
+        <v>86097</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="M24" s="7">
-        <v>527</v>
-      </c>
-      <c r="N24" s="7">
-        <v>425930</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,49 +2012,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="D25" s="7">
-        <v>7288</v>
+        <v>134933</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="7">
+        <v>156</v>
+      </c>
+      <c r="I25" s="7">
+        <v>109744</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>325</v>
+      </c>
+      <c r="N25" s="7">
+        <v>244677</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M25" s="7">
-        <v>6</v>
-      </c>
-      <c r="N25" s="7">
-        <v>7288</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,13 +2063,13 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="D26" s="7">
-        <v>9102</v>
+        <v>210795</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>134</v>
@@ -2078,10 +2078,10 @@
         <v>135</v>
       </c>
       <c r="H26" s="7">
-        <v>8</v>
+        <v>281</v>
       </c>
       <c r="I26" s="7">
-        <v>5717</v>
+        <v>215135</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>136</v>
@@ -2093,10 +2093,10 @@
         <v>138</v>
       </c>
       <c r="M26" s="7">
-        <v>20</v>
+        <v>527</v>
       </c>
       <c r="N26" s="7">
-        <v>14819</v>
+        <v>425930</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>139</v>
@@ -2120,13 +2120,13 @@
         <v>417631</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
         <v>476</v>
@@ -2135,13 +2135,13 @@
         <v>361180</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>963</v>
@@ -2150,13 +2150,13 @@
         <v>778811</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A25_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A25_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B4C1739-2E9E-4CFC-83C1-BC852478B481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A35A92E7-E9A6-480B-8AD5-A8669BD73F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{34EE8914-7CEB-4C4B-A3AE-473A4A8A1C15}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B3AC4913-D4EB-4DA5-AE3D-81DD14C3BCF4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="145">
   <si>
     <t>Menores según frecuencia de haberle ido bien en el colegio en 2023 (Tasa respuesta: 50,16%)</t>
   </si>
@@ -65,286 +65,397 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
   </si>
   <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -353,115 +464,13 @@
     <t>0,94%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -472,7 +481,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -568,39 +577,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -652,7 +661,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -763,13 +772,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -778,6 +780,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -842,19 +851,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CFD361-2F0C-4268-8748-7FE3170DB834}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015DAABE-0C86-48A5-9050-E29FC79BE270}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1243,49 +1272,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,49 +1317,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>674</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>674</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,49 +1362,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2809</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>10</v>
-      </c>
-      <c r="N12" s="7">
-        <v>7941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,49 +1407,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7">
-        <v>24517</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>16483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>52</v>
-      </c>
-      <c r="N13" s="7">
-        <v>41000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,49 +1452,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>42</v>
-      </c>
-      <c r="D14" s="7">
-        <v>36851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>56</v>
-      </c>
-      <c r="I14" s="7">
-        <v>43162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>98</v>
-      </c>
-      <c r="N14" s="7">
-        <v>80013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,102 +1497,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>80</v>
-      </c>
-      <c r="D15" s="7">
-        <v>67597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>82</v>
-      </c>
-      <c r="I15" s="7">
-        <v>62453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7">
-        <v>130050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="D16" s="7">
-        <v>6866</v>
+        <v>84840</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>85801</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="N16" s="7">
-        <v>6866</v>
+        <v>170641</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,49 +1595,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D17" s="7">
-        <v>8427</v>
+        <v>60807</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="I17" s="7">
-        <v>5717</v>
+        <v>39789</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="N17" s="7">
-        <v>14144</v>
+        <v>100596</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,49 +1646,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7">
-        <v>50380</v>
+        <v>14228</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="H18" s="7">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>27775</v>
+        <v>5678</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="M18" s="7">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="N18" s="7">
-        <v>78156</v>
+        <v>19906</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,49 +1697,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>110415</v>
+        <v>1723</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H19" s="7">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>93262</v>
+        <v>2537</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>273</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>203677</v>
+        <v>4260</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,49 +1748,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>173945</v>
+        <v>1096</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>171972</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
-        <v>429</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>345917</v>
+        <v>1096</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,102 +1799,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>407</v>
+        <v>194</v>
       </c>
       <c r="D21" s="7">
-        <v>350034</v>
+        <v>162694</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>394</v>
+        <v>177</v>
       </c>
       <c r="I21" s="7">
-        <v>298726</v>
+        <v>133806</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>801</v>
+        <v>371</v>
       </c>
       <c r="N21" s="7">
-        <v>648761</v>
+        <v>296500</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="D22" s="7">
-        <v>7288</v>
+        <v>125955</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>129334</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="M22" s="7">
-        <v>6</v>
+        <v>319</v>
       </c>
       <c r="N22" s="7">
-        <v>7288</v>
+        <v>255289</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,49 +1903,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D23" s="7">
-        <v>9102</v>
+        <v>74126</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="H23" s="7">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I23" s="7">
-        <v>5717</v>
+        <v>69955</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="M23" s="7">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="N23" s="7">
-        <v>14819</v>
+        <v>144081</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,49 +1954,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D24" s="7">
-        <v>55513</v>
+        <v>41285</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I24" s="7">
-        <v>30584</v>
+        <v>24905</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="M24" s="7">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="N24" s="7">
-        <v>86097</v>
+        <v>66191</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,49 +2005,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="D25" s="7">
-        <v>134933</v>
+        <v>7379</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>109744</v>
+        <v>3180</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="M25" s="7">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="N25" s="7">
-        <v>244677</v>
+        <v>10559</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,49 +2056,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>210795</v>
+        <v>6192</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>215135</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
-        <v>527</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>425930</v>
+        <v>6192</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,55 +2107,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>293</v>
+      </c>
+      <c r="D27" s="7">
+        <v>254937</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
+        <v>299</v>
+      </c>
+      <c r="I27" s="7">
+        <v>227374</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="7">
+        <v>592</v>
+      </c>
+      <c r="N27" s="7">
+        <v>482311</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>246</v>
+      </c>
+      <c r="D28" s="7">
+        <v>210795</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="7">
+        <v>281</v>
+      </c>
+      <c r="I28" s="7">
+        <v>215135</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28" s="7">
+        <v>527</v>
+      </c>
+      <c r="N28" s="7">
+        <v>425930</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>169</v>
+      </c>
+      <c r="D29" s="7">
+        <v>134933</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="7">
+        <v>156</v>
+      </c>
+      <c r="I29" s="7">
+        <v>109744</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" s="7">
+        <v>325</v>
+      </c>
+      <c r="N29" s="7">
+        <v>244677</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>54</v>
+      </c>
+      <c r="D30" s="7">
+        <v>55513</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="7">
+        <v>31</v>
+      </c>
+      <c r="I30" s="7">
+        <v>30584</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M30" s="7">
+        <v>85</v>
+      </c>
+      <c r="N30" s="7">
+        <v>86097</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>12</v>
+      </c>
+      <c r="D31" s="7">
+        <v>9102</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="7">
+        <v>8</v>
+      </c>
+      <c r="I31" s="7">
+        <v>5717</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M31" s="7">
+        <v>20</v>
+      </c>
+      <c r="N31" s="7">
+        <v>14819</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>7288</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32" s="7">
+        <v>6</v>
+      </c>
+      <c r="N32" s="7">
+        <v>7288</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>487</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>417631</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>476</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>361180</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="7">
         <v>963</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>778811</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>55</v>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A25_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A25_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A35A92E7-E9A6-480B-8AD5-A8669BD73F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D88D3D91-5DC6-4EED-B862-21B00732E5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B3AC4913-D4EB-4DA5-AE3D-81DD14C3BCF4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{649975B5-CF50-41F0-B15B-3D30738EECB2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="147">
   <si>
     <t>Menores según frecuencia de haberle ido bien en el colegio en 2023 (Tasa respuesta: 50,16%)</t>
   </si>
@@ -95,367 +95,376 @@
     <t>52,15%</t>
   </si>
   <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
     <t>44,86%</t>
   </si>
   <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -464,10 +473,7 @@
     <t>0,94%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>2,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -882,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015DAABE-0C86-48A5-9050-E29FC79BE270}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E5AC50-BF31-4E92-A5C5-73E06282429B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1607,7 +1613,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -1616,13 +1622,13 @@
         <v>39789</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
@@ -1631,13 +1637,13 @@
         <v>100596</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,13 +1658,13 @@
         <v>14228</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -1667,13 +1673,13 @@
         <v>5678</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -1682,13 +1688,13 @@
         <v>19906</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,13 +1709,13 @@
         <v>1723</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -1718,13 +1724,13 @@
         <v>2537</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -1733,13 +1739,13 @@
         <v>4260</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,28 +1760,28 @@
         <v>1096</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -1784,13 +1790,13 @@
         <v>1096</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,13 +1811,13 @@
         <v>162694</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
         <v>177</v>
@@ -1820,13 +1826,13 @@
         <v>133806</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
         <v>371</v>
@@ -1835,18 +1841,18 @@
         <v>296500</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1858,13 +1864,13 @@
         <v>125955</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H22" s="7">
         <v>171</v>
@@ -1873,13 +1879,13 @@
         <v>129334</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
         <v>319</v>
@@ -1888,13 +1894,13 @@
         <v>255289</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,13 +1915,13 @@
         <v>74126</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" s="7">
         <v>100</v>
@@ -1924,13 +1930,13 @@
         <v>69955</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M23" s="7">
         <v>196</v>
@@ -1939,13 +1945,13 @@
         <v>144081</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,13 +1966,13 @@
         <v>41285</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -1975,13 +1981,13 @@
         <v>24905</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>59</v>
@@ -1990,13 +1996,13 @@
         <v>66191</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,13 +2017,13 @@
         <v>7379</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2026,13 +2032,13 @@
         <v>3180</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -2041,13 +2047,13 @@
         <v>10559</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,13 +2068,13 @@
         <v>6192</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2077,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2092,13 +2098,13 @@
         <v>6192</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2119,13 @@
         <v>254937</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H27" s="7">
         <v>299</v>
@@ -2128,13 +2134,13 @@
         <v>227374</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -2143,13 +2149,13 @@
         <v>482311</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,13 +2172,13 @@
         <v>210795</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>281</v>
@@ -2181,13 +2187,13 @@
         <v>215135</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>527</v>
@@ -2196,13 +2202,13 @@
         <v>425930</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,13 +2223,13 @@
         <v>134933</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>156</v>
@@ -2232,13 +2238,13 @@
         <v>109744</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>325</v>
@@ -2247,13 +2253,13 @@
         <v>244677</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,13 +2274,13 @@
         <v>55513</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H30" s="7">
         <v>31</v>
@@ -2283,13 +2289,13 @@
         <v>30584</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>85</v>
@@ -2298,13 +2304,13 @@
         <v>86097</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,13 +2325,13 @@
         <v>9102</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -2334,13 +2340,13 @@
         <v>5717</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
@@ -2349,13 +2355,13 @@
         <v>14819</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,13 +2376,13 @@
         <v>7288</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2385,13 +2391,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -2400,13 +2406,13 @@
         <v>7288</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,13 +2427,13 @@
         <v>417631</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H33" s="7">
         <v>476</v>
@@ -2436,13 +2442,13 @@
         <v>361180</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M33" s="7">
         <v>963</v>
@@ -2451,18 +2457,18 @@
         <v>778811</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A25_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A25_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D88D3D91-5DC6-4EED-B862-21B00732E5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{170B4857-625B-491A-A659-FED3E8ED9B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{649975B5-CF50-41F0-B15B-3D30738EECB2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{818632B6-8840-4321-9BFC-A6C752690AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="147">
-  <si>
-    <t>Menores según frecuencia de haberle ido bien en el colegio en 2023 (Tasa respuesta: 50,16%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="151">
+  <si>
+    <t>Menores según frecuencia de haberle ido bien en el colegio en 2023 (Tasa respuesta: 50,21%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,22 +68,22 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>Muchísimo</t>
+    <t>Siempre</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>Nada</t>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Nunca</t>
   </si>
   <si>
     <t>3-7</t>
@@ -92,388 +92,400 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
   </si>
   <si>
     <t>23,22%</t>
   </si>
   <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -888,7 +900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E5AC50-BF31-4E92-A5C5-73E06282429B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234D32CE-C7BA-454C-A073-7AE01E0109F1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1550,10 +1562,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D16" s="7">
-        <v>84840</v>
+        <v>75159</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -1565,10 +1577,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="I16" s="7">
-        <v>85801</v>
+        <v>109376</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -1580,10 +1592,10 @@
         <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="N16" s="7">
-        <v>170641</v>
+        <v>184535</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>24</v>
@@ -1601,10 +1613,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D17" s="7">
-        <v>60807</v>
+        <v>39376</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -1616,10 +1628,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I17" s="7">
-        <v>39789</v>
+        <v>45514</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -1631,10 +1643,10 @@
         <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="N17" s="7">
-        <v>100596</v>
+        <v>84890</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>33</v>
@@ -1652,10 +1664,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>14228</v>
+        <v>10453</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -1667,10 +1679,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>5678</v>
+        <v>4169</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -1682,10 +1694,10 @@
         <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N18" s="7">
-        <v>19906</v>
+        <v>14622</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>42</v>
@@ -1703,10 +1715,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>1723</v>
+        <v>4197</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -1718,10 +1730,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>2537</v>
+        <v>4818</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -1733,10 +1745,10 @@
         <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>4260</v>
+        <v>9014</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>51</v>
@@ -1754,28 +1766,28 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>1096</v>
+        <v>2102</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>8</v>
+      </c>
+      <c r="I20" s="7">
+        <v>6588</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>57</v>
@@ -1784,19 +1796,19 @@
         <v>58</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N20" s="7">
-        <v>1096</v>
+        <v>8690</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,102 +1817,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>177</v>
+      </c>
+      <c r="D21" s="7">
+        <v>131287</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="7">
         <v>194</v>
       </c>
-      <c r="D21" s="7">
-        <v>162694</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="7">
-        <v>177</v>
-      </c>
       <c r="I21" s="7">
-        <v>133806</v>
+        <v>170464</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>371</v>
       </c>
       <c r="N21" s="7">
-        <v>296500</v>
+        <v>301751</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="D22" s="7">
-        <v>125955</v>
+        <v>137638</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="I22" s="7">
-        <v>129334</v>
+        <v>161473</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M22" s="7">
-        <v>319</v>
+        <v>372</v>
       </c>
       <c r="N22" s="7">
-        <v>255289</v>
+        <v>299110</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,49 +1921,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D23" s="7">
-        <v>74126</v>
+        <v>90490</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H23" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I23" s="7">
-        <v>69955</v>
+        <v>93059</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M23" s="7">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N23" s="7">
-        <v>144081</v>
+        <v>183549</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,49 +1972,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>41285</v>
+        <v>5251</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H24" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>24905</v>
+        <v>7107</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M24" s="7">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="N24" s="7">
-        <v>66191</v>
+        <v>12359</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,49 +2023,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>7379</v>
+        <v>1816</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H25" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>3180</v>
+        <v>2102</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M25" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>10559</v>
+        <v>3918</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,49 +2074,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>6192</v>
+        <v>3485</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="7">
+        <v>6</v>
+      </c>
+      <c r="I26" s="7">
+        <v>4657</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M26" s="7">
+        <v>11</v>
+      </c>
+      <c r="N26" s="7">
+        <v>8141</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M26" s="7">
-        <v>4</v>
-      </c>
-      <c r="N26" s="7">
-        <v>6192</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="P26" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,49 +2125,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D27" s="7">
-        <v>254937</v>
+        <v>238680</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I27" s="7">
-        <v>227374</v>
+        <v>268398</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N27" s="7">
-        <v>482311</v>
+        <v>507077</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,49 +2178,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="D28" s="7">
-        <v>210795</v>
+        <v>212797</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H28" s="7">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="I28" s="7">
-        <v>215135</v>
+        <v>270849</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M28" s="7">
-        <v>527</v>
+        <v>607</v>
       </c>
       <c r="N28" s="7">
-        <v>425930</v>
+        <v>483645</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,49 +2229,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="D29" s="7">
-        <v>134933</v>
+        <v>129866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H29" s="7">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I29" s="7">
-        <v>109744</v>
+        <v>138573</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M29" s="7">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="N29" s="7">
-        <v>244677</v>
+        <v>268438</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,49 +2280,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D30" s="7">
-        <v>55513</v>
+        <v>15705</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H30" s="7">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I30" s="7">
-        <v>30584</v>
+        <v>11276</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M30" s="7">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="N30" s="7">
-        <v>86097</v>
+        <v>26981</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,49 +2331,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D31" s="7">
-        <v>9102</v>
+        <v>6013</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
       </c>
       <c r="I31" s="7">
-        <v>5717</v>
+        <v>6920</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M31" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N31" s="7">
-        <v>14819</v>
+        <v>12932</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,49 +2382,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D32" s="7">
-        <v>7288</v>
+        <v>5587</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>11245</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M32" s="7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="N32" s="7">
-        <v>7288</v>
+        <v>16832</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,54 +2433,54 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D33" s="7">
-        <v>417631</v>
+        <v>369967</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="I33" s="7">
-        <v>361180</v>
+        <v>438862</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M33" s="7">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="N33" s="7">
-        <v>778811</v>
+        <v>808828</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
